--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1213.718175097939</v>
+        <v>1556.214934333646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1660.662752635836</v>
+        <v>2129.281928512746</v>
       </c>
       <c r="AC2" t="n">
-        <v>1502.171430279083</v>
+        <v>1926.066249721444</v>
       </c>
       <c r="AD2" t="n">
-        <v>1213718.175097939</v>
+        <v>1556214.934333646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1660662.752635836</v>
+        <v>2129281.928512746</v>
       </c>
       <c r="AF2" t="n">
         <v>2.266676666095237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1502171.430279083</v>
+        <v>1926066.249721444</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>898.4463954780167</v>
+        <v>1172.389340402504</v>
       </c>
       <c r="AB3" t="n">
-        <v>1229.293994950577</v>
+        <v>1604.114817706038</v>
       </c>
       <c r="AC3" t="n">
-        <v>1111.971901397451</v>
+        <v>1451.02035089346</v>
       </c>
       <c r="AD3" t="n">
-        <v>898446.3954780167</v>
+        <v>1172389.340402504</v>
       </c>
       <c r="AE3" t="n">
-        <v>1229293.994950577</v>
+        <v>1604114.817706038</v>
       </c>
       <c r="AF3" t="n">
         <v>2.898361585591746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1111971.901397451</v>
+        <v>1451020.35089346</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.0447203702854</v>
+        <v>1056.477942561781</v>
       </c>
       <c r="AB4" t="n">
-        <v>1097.392970126431</v>
+        <v>1445.519729530391</v>
       </c>
       <c r="AC4" t="n">
-        <v>992.6593252582701</v>
+        <v>1307.561355343692</v>
       </c>
       <c r="AD4" t="n">
-        <v>802044.7203702854</v>
+        <v>1056477.942561781</v>
       </c>
       <c r="AE4" t="n">
-        <v>1097392.970126431</v>
+        <v>1445519.729530391</v>
       </c>
       <c r="AF4" t="n">
         <v>3.151855218966644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>992659.3252582701</v>
+        <v>1307561.355343692</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>758.1526833780939</v>
+        <v>1002.797384299241</v>
       </c>
       <c r="AB5" t="n">
-        <v>1037.337948733705</v>
+        <v>1372.071621496494</v>
       </c>
       <c r="AC5" t="n">
-        <v>938.3358708195146</v>
+        <v>1241.123031655483</v>
       </c>
       <c r="AD5" t="n">
-        <v>758152.6833780939</v>
+        <v>1002797.384299241</v>
       </c>
       <c r="AE5" t="n">
-        <v>1037337.948733705</v>
+        <v>1372071.621496494</v>
       </c>
       <c r="AF5" t="n">
         <v>3.28227847684189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>938335.8708195146</v>
+        <v>1241123.031655483</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>733.0520432832956</v>
+        <v>967.9423883528752</v>
       </c>
       <c r="AB6" t="n">
-        <v>1002.994145593915</v>
+        <v>1324.38147834878</v>
       </c>
       <c r="AC6" t="n">
-        <v>907.2697920495553</v>
+        <v>1197.984368836251</v>
       </c>
       <c r="AD6" t="n">
-        <v>733052.0432832956</v>
+        <v>967942.3883528752</v>
       </c>
       <c r="AE6" t="n">
-        <v>1002994.145593915</v>
+        <v>1324381.47834878</v>
       </c>
       <c r="AF6" t="n">
         <v>3.368825518574261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.58854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>907269.7920495553</v>
+        <v>1197984.368836251</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>710.9405717002777</v>
+        <v>945.7967513510766</v>
       </c>
       <c r="AB7" t="n">
-        <v>972.74025468475</v>
+        <v>1294.080840806367</v>
       </c>
       <c r="AC7" t="n">
-        <v>879.9032900271587</v>
+        <v>1170.575581613674</v>
       </c>
       <c r="AD7" t="n">
-        <v>710940.5717002777</v>
+        <v>945796.7513510766</v>
       </c>
       <c r="AE7" t="n">
-        <v>972740.25468475</v>
+        <v>1294080.840806367</v>
       </c>
       <c r="AF7" t="n">
         <v>3.423911866863528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>879903.2900271587</v>
+        <v>1170575.581613674</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>698.957667023058</v>
+        <v>923.9921710145846</v>
       </c>
       <c r="AB8" t="n">
-        <v>956.3447158569335</v>
+        <v>1264.246852039786</v>
       </c>
       <c r="AC8" t="n">
-        <v>865.0725184137858</v>
+        <v>1143.588906862709</v>
       </c>
       <c r="AD8" t="n">
-        <v>698957.6670230579</v>
+        <v>923992.1710145846</v>
       </c>
       <c r="AE8" t="n">
-        <v>956344.7158569335</v>
+        <v>1264246.852039786</v>
       </c>
       <c r="AF8" t="n">
         <v>3.457361454719703e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>865072.5184137858</v>
+        <v>1143588.906862709</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>681.0845203152105</v>
+        <v>915.9065345472285</v>
       </c>
       <c r="AB9" t="n">
-        <v>931.8898880236741</v>
+        <v>1253.183727512044</v>
       </c>
       <c r="AC9" t="n">
-        <v>842.9516250263662</v>
+        <v>1133.581631412702</v>
       </c>
       <c r="AD9" t="n">
-        <v>681084.5203152106</v>
+        <v>915906.5345472285</v>
       </c>
       <c r="AE9" t="n">
-        <v>931889.888023674</v>
+        <v>1253183.727512044</v>
       </c>
       <c r="AF9" t="n">
         <v>3.490931581631214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.94791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>842951.6250263662</v>
+        <v>1133581.631412702</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>680.3275469455962</v>
+        <v>915.1495611776141</v>
       </c>
       <c r="AB10" t="n">
-        <v>930.8541636640596</v>
+        <v>1252.148003152429</v>
       </c>
       <c r="AC10" t="n">
-        <v>842.0147487459851</v>
+        <v>1132.644755132321</v>
       </c>
       <c r="AD10" t="n">
-        <v>680327.5469455961</v>
+        <v>915149.5611776141</v>
       </c>
       <c r="AE10" t="n">
-        <v>930854.1636640596</v>
+        <v>1252148.003152429</v>
       </c>
       <c r="AF10" t="n">
         <v>3.490871312103545e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.94791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>842014.7487459851</v>
+        <v>1132644.755132321</v>
       </c>
     </row>
     <row r="11">
@@ -4056,28 +4056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>681.0860930794302</v>
+        <v>915.9081073114481</v>
       </c>
       <c r="AB11" t="n">
-        <v>931.8920399490648</v>
+        <v>1253.185879437435</v>
       </c>
       <c r="AC11" t="n">
-        <v>842.953571575018</v>
+        <v>1133.583577961354</v>
       </c>
       <c r="AD11" t="n">
-        <v>681086.0930794302</v>
+        <v>915908.1073114481</v>
       </c>
       <c r="AE11" t="n">
-        <v>931892.0399490648</v>
+        <v>1253185.879437434</v>
       </c>
       <c r="AF11" t="n">
         <v>3.490208347299189e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.97395833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>842953.571575018</v>
+        <v>1133583.577961354</v>
       </c>
     </row>
   </sheetData>
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1016.430166092683</v>
+        <v>1316.45986993833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1390.724594982166</v>
+        <v>1801.238472160137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1257.995791531296</v>
+        <v>1629.330800431247</v>
       </c>
       <c r="AD2" t="n">
-        <v>1016430.166092683</v>
+        <v>1316459.86993833</v>
       </c>
       <c r="AE2" t="n">
-        <v>1390724.594982166</v>
+        <v>1801238.472160137</v>
       </c>
       <c r="AF2" t="n">
         <v>2.768872973054611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1257995.791531296</v>
+        <v>1629330.800431247</v>
       </c>
     </row>
     <row r="3">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.9583707182089</v>
+        <v>1036.618483202239</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.014672735913</v>
+        <v>1418.347141097154</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.5122197590575</v>
+        <v>1282.982080613556</v>
       </c>
       <c r="AD3" t="n">
-        <v>784958.370718209</v>
+        <v>1036618.483202239</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074014.672735913</v>
+        <v>1418347.141097154</v>
       </c>
       <c r="AF3" t="n">
         <v>3.390479580909728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.65104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>971512.2197590575</v>
+        <v>1282982.080613556</v>
       </c>
     </row>
     <row r="4">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>722.4669061034343</v>
+        <v>964.4123040185756</v>
       </c>
       <c r="AB4" t="n">
-        <v>988.5110939211338</v>
+        <v>1319.551461226261</v>
       </c>
       <c r="AC4" t="n">
-        <v>894.1689825013341</v>
+        <v>1193.615321768934</v>
       </c>
       <c r="AD4" t="n">
-        <v>722466.9061034343</v>
+        <v>964412.3040185756</v>
       </c>
       <c r="AE4" t="n">
-        <v>988511.0939211338</v>
+        <v>1319551.461226261</v>
       </c>
       <c r="AF4" t="n">
         <v>3.610211515704259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>894168.982501334</v>
+        <v>1193615.321768934</v>
       </c>
     </row>
     <row r="5">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>682.2537790313335</v>
+        <v>914.5186277963668</v>
       </c>
       <c r="AB5" t="n">
-        <v>933.4897193831276</v>
+        <v>1251.28473226539</v>
       </c>
       <c r="AC5" t="n">
-        <v>844.398770726251</v>
+        <v>1131.863873607133</v>
       </c>
       <c r="AD5" t="n">
-        <v>682253.7790313335</v>
+        <v>914518.6277963668</v>
       </c>
       <c r="AE5" t="n">
-        <v>933489.7193831276</v>
+        <v>1251284.73226539</v>
       </c>
       <c r="AF5" t="n">
         <v>3.741378027800994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.91145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>844398.770726251</v>
+        <v>1131863.873607133</v>
       </c>
     </row>
     <row r="6">
@@ -4777,19 +4777,19 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>657.4164326644158</v>
+        <v>889.647116010668</v>
       </c>
       <c r="AB6" t="n">
-        <v>899.5061663375227</v>
+        <v>1217.254432586538</v>
       </c>
       <c r="AC6" t="n">
-        <v>813.6585602871023</v>
+        <v>1101.081377967804</v>
       </c>
       <c r="AD6" t="n">
-        <v>657416.4326644158</v>
+        <v>889647.116010668</v>
       </c>
       <c r="AE6" t="n">
-        <v>899506.1663375227</v>
+        <v>1217254.432586538</v>
       </c>
       <c r="AF6" t="n">
         <v>3.817018042569699e-06</v>
@@ -4798,7 +4798,7 @@
         <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>813658.5602871024</v>
+        <v>1101081.377967804</v>
       </c>
     </row>
     <row r="7">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>649.5543025871885</v>
+        <v>872.1727676208943</v>
       </c>
       <c r="AB7" t="n">
-        <v>888.7488531131611</v>
+        <v>1193.345258205807</v>
       </c>
       <c r="AC7" t="n">
-        <v>803.9279099388898</v>
+        <v>1079.454061633233</v>
       </c>
       <c r="AD7" t="n">
-        <v>649554.3025871885</v>
+        <v>872172.7676208944</v>
       </c>
       <c r="AE7" t="n">
-        <v>888748.8531131611</v>
+        <v>1193345.258205807</v>
       </c>
       <c r="AF7" t="n">
         <v>3.848738048763028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>803927.9099388898</v>
+        <v>1079454.061633233</v>
       </c>
     </row>
     <row r="8">
@@ -4989,28 +4989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>649.819726330231</v>
+        <v>872.4381913639368</v>
       </c>
       <c r="AB8" t="n">
-        <v>889.1120175880608</v>
+        <v>1193.708422680706</v>
       </c>
       <c r="AC8" t="n">
-        <v>804.2564145060098</v>
+        <v>1079.782566200353</v>
       </c>
       <c r="AD8" t="n">
-        <v>649819.7263302309</v>
+        <v>872438.1913639368</v>
       </c>
       <c r="AE8" t="n">
-        <v>889112.0175880608</v>
+        <v>1193708.422680706</v>
       </c>
       <c r="AF8" t="n">
         <v>3.849001832598315e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>804256.4145060098</v>
+        <v>1079782.566200353</v>
       </c>
     </row>
   </sheetData>
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.8579860280313</v>
+        <v>880.7108641024137</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.059633843831</v>
+        <v>1205.027458486054</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.590784578773</v>
+        <v>1090.021329114804</v>
       </c>
       <c r="AD2" t="n">
-        <v>646857.9860280313</v>
+        <v>880710.8641024136</v>
       </c>
       <c r="AE2" t="n">
-        <v>885059.633843831</v>
+        <v>1205027.458486054</v>
       </c>
       <c r="AF2" t="n">
         <v>4.918584025696529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>800590.784578773</v>
+        <v>1090021.329114804</v>
       </c>
     </row>
     <row r="3">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.1332425074228</v>
+        <v>799.5623080045169</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.9226754865734</v>
+        <v>1093.996424011282</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.8198797910458</v>
+        <v>989.5869407372688</v>
       </c>
       <c r="AD3" t="n">
-        <v>575133.2425074228</v>
+        <v>799562.3080045169</v>
       </c>
       <c r="AE3" t="n">
-        <v>786922.6754865735</v>
+        <v>1093996.424011282</v>
       </c>
       <c r="AF3" t="n">
         <v>5.337946792765047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>711819.8797910458</v>
+        <v>989586.9407372689</v>
       </c>
     </row>
     <row r="4">
@@ -5498,28 +5498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>575.2787355403376</v>
+        <v>799.7078010374319</v>
       </c>
       <c r="AB4" t="n">
-        <v>787.121745472907</v>
+        <v>1094.195493997615</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.9999508172804</v>
+        <v>989.7670117635033</v>
       </c>
       <c r="AD4" t="n">
-        <v>575278.7355403376</v>
+        <v>799707.8010374318</v>
       </c>
       <c r="AE4" t="n">
-        <v>787121.7454729071</v>
+        <v>1094195.493997615</v>
       </c>
       <c r="AF4" t="n">
         <v>5.339603625470762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.89583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>711999.9508172803</v>
+        <v>989767.0117635033</v>
       </c>
     </row>
   </sheetData>
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.8388192948524</v>
+        <v>1025.248286635919</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.64499428208</v>
+        <v>1402.789936537444</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.4227351787121</v>
+        <v>1268.909633822351</v>
       </c>
       <c r="AD2" t="n">
-        <v>759838.8192948524</v>
+        <v>1025248.286635919</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039644.994282081</v>
+        <v>1402789.936537444</v>
       </c>
       <c r="AF2" t="n">
         <v>3.923982194990247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>940422.7351787121</v>
+        <v>1268909.633822351</v>
       </c>
     </row>
     <row r="3">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.3856264851159</v>
+        <v>870.8316589233433</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.3085983275229</v>
+        <v>1191.510294120277</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.2931812240209</v>
+        <v>1077.794223944638</v>
       </c>
       <c r="AD3" t="n">
-        <v>643385.626485116</v>
+        <v>870831.6589233433</v>
       </c>
       <c r="AE3" t="n">
-        <v>880308.5983275229</v>
+        <v>1191510.294120277</v>
       </c>
       <c r="AF3" t="n">
         <v>4.481487862038042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>796293.1812240209</v>
+        <v>1077794.223944638</v>
       </c>
     </row>
     <row r="4">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>601.9133263808627</v>
+        <v>819.8767886906112</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.5643676961316</v>
+        <v>1121.791592697632</v>
       </c>
       <c r="AC4" t="n">
-        <v>744.9645403230618</v>
+        <v>1014.729377534958</v>
       </c>
       <c r="AD4" t="n">
-        <v>601913.3263808627</v>
+        <v>819876.7886906111</v>
       </c>
       <c r="AE4" t="n">
-        <v>823564.3676961316</v>
+        <v>1121791.592697632</v>
       </c>
       <c r="AF4" t="n">
         <v>4.6675356496974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>744964.5403230618</v>
+        <v>1014729.377534958</v>
       </c>
     </row>
     <row r="5">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>602.7213748529617</v>
+        <v>820.7863223891954</v>
       </c>
       <c r="AB5" t="n">
-        <v>824.6699752642401</v>
+        <v>1123.03605682983</v>
       </c>
       <c r="AC5" t="n">
-        <v>745.9646302566</v>
+        <v>1015.855071756996</v>
       </c>
       <c r="AD5" t="n">
-        <v>602721.3748529617</v>
+        <v>820786.3223891954</v>
       </c>
       <c r="AE5" t="n">
-        <v>824669.9752642401</v>
+        <v>1123036.05682983</v>
       </c>
       <c r="AF5" t="n">
         <v>4.656136834943634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>745964.6302566</v>
+        <v>1015855.071756996</v>
       </c>
     </row>
   </sheetData>
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.7640341452122</v>
+        <v>799.6582200881984</v>
       </c>
       <c r="AB2" t="n">
-        <v>790.5222406677329</v>
+        <v>1094.127655155517</v>
       </c>
       <c r="AC2" t="n">
-        <v>715.0759075233368</v>
+        <v>989.7056473652827</v>
       </c>
       <c r="AD2" t="n">
-        <v>577764.0341452123</v>
+        <v>799658.2200881984</v>
       </c>
       <c r="AE2" t="n">
-        <v>790522.2406677329</v>
+        <v>1094127.655155517</v>
       </c>
       <c r="AF2" t="n">
         <v>5.923384356169096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>715075.9075233368</v>
+        <v>989705.6473652828</v>
       </c>
     </row>
     <row r="3">
@@ -6516,28 +6516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.3031111236666</v>
+        <v>786.2646168743572</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.1044119356424</v>
+        <v>1075.801936354268</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.4158505158521</v>
+        <v>973.1289094461169</v>
       </c>
       <c r="AD3" t="n">
-        <v>564303.1111236665</v>
+        <v>786264.6168743572</v>
       </c>
       <c r="AE3" t="n">
-        <v>772104.4119356424</v>
+        <v>1075801.936354268</v>
       </c>
       <c r="AF3" t="n">
         <v>6.00319216888815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.72916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>698415.8505158521</v>
+        <v>973128.909446117</v>
       </c>
     </row>
   </sheetData>
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1056.888881000304</v>
+        <v>1377.215197224026</v>
       </c>
       <c r="AB2" t="n">
-        <v>1446.081993631302</v>
+        <v>1884.366591288298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1308.069957747955</v>
+        <v>1704.525288540863</v>
       </c>
       <c r="AD2" t="n">
-        <v>1056888.881000304</v>
+        <v>1377215.197224026</v>
       </c>
       <c r="AE2" t="n">
-        <v>1446081.993631302</v>
+        <v>1884366.591288297</v>
       </c>
       <c r="AF2" t="n">
         <v>2.627720832447261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.77604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1308069.957747955</v>
+        <v>1704525.288540863</v>
       </c>
     </row>
     <row r="3">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>813.3890193577412</v>
+        <v>1075.461763388503</v>
       </c>
       <c r="AB3" t="n">
-        <v>1112.914740476217</v>
+        <v>1471.494230692578</v>
       </c>
       <c r="AC3" t="n">
-        <v>1006.699719630815</v>
+        <v>1331.056886570401</v>
       </c>
       <c r="AD3" t="n">
-        <v>813389.0193577412</v>
+        <v>1075461.763388502</v>
       </c>
       <c r="AE3" t="n">
-        <v>1112914.740476217</v>
+        <v>1471494.230692578</v>
       </c>
       <c r="AF3" t="n">
         <v>3.25117145877276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.53645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1006699.719630815</v>
+        <v>1331056.886570401</v>
       </c>
     </row>
     <row r="4">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>746.9510660314002</v>
+        <v>979.8980349955381</v>
       </c>
       <c r="AB4" t="n">
-        <v>1022.011401699478</v>
+        <v>1340.739721531176</v>
       </c>
       <c r="AC4" t="n">
-        <v>924.4720679232909</v>
+        <v>1212.781404248257</v>
       </c>
       <c r="AD4" t="n">
-        <v>746951.0660314001</v>
+        <v>979898.0349955381</v>
       </c>
       <c r="AE4" t="n">
-        <v>1022011.401699479</v>
+        <v>1340739.721531176</v>
       </c>
       <c r="AF4" t="n">
         <v>3.485029796517068e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>924472.0679232909</v>
+        <v>1212781.404248257</v>
       </c>
     </row>
     <row r="5">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.766093501594</v>
+        <v>940.6447316281705</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.3967935652167</v>
+        <v>1287.031620130418</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.9743627407879</v>
+        <v>1164.199128665395</v>
       </c>
       <c r="AD5" t="n">
-        <v>707766.093501594</v>
+        <v>940644.7316281705</v>
       </c>
       <c r="AE5" t="n">
-        <v>968396.7935652167</v>
+        <v>1287031.620130418</v>
       </c>
       <c r="AF5" t="n">
         <v>3.60948825144208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.43229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>875974.3627407879</v>
+        <v>1164199.128665395</v>
       </c>
     </row>
     <row r="6">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>682.1134179154129</v>
+        <v>905.3172927619435</v>
       </c>
       <c r="AB6" t="n">
-        <v>933.2976711120295</v>
+        <v>1238.69505973704</v>
       </c>
       <c r="AC6" t="n">
-        <v>844.2250512726051</v>
+        <v>1120.475741755171</v>
       </c>
       <c r="AD6" t="n">
-        <v>682113.4179154129</v>
+        <v>905317.2927619434</v>
       </c>
       <c r="AE6" t="n">
-        <v>933297.6711120296</v>
+        <v>1238695.05973704</v>
       </c>
       <c r="AF6" t="n">
         <v>3.684845464842901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.46875</v>
       </c>
       <c r="AH6" t="n">
-        <v>844225.0512726051</v>
+        <v>1120475.741755171</v>
       </c>
     </row>
     <row r="7">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>658.5232009790835</v>
+        <v>881.7943956333186</v>
       </c>
       <c r="AB7" t="n">
-        <v>901.0204955728233</v>
+        <v>1206.509994128675</v>
       </c>
       <c r="AC7" t="n">
-        <v>815.0283640655603</v>
+        <v>1091.362373636446</v>
       </c>
       <c r="AD7" t="n">
-        <v>658523.2009790835</v>
+        <v>881794.3956333186</v>
       </c>
       <c r="AE7" t="n">
-        <v>901020.4955728233</v>
+        <v>1206509.994128675</v>
       </c>
       <c r="AF7" t="n">
         <v>3.742119521142416e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.79166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>815028.3640655603</v>
+        <v>1091362.373636446</v>
       </c>
     </row>
     <row r="8">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>656.3160380369337</v>
+        <v>879.5872326911685</v>
       </c>
       <c r="AB8" t="n">
-        <v>898.0005578622171</v>
+        <v>1203.490056418069</v>
       </c>
       <c r="AC8" t="n">
-        <v>812.2966449715451</v>
+        <v>1088.630654542431</v>
       </c>
       <c r="AD8" t="n">
-        <v>656316.0380369338</v>
+        <v>879587.2326911686</v>
       </c>
       <c r="AE8" t="n">
-        <v>898000.5578622171</v>
+        <v>1203490.056418069</v>
       </c>
       <c r="AF8" t="n">
         <v>3.751257629001439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>812296.6449715451</v>
+        <v>1088630.654542431</v>
       </c>
     </row>
     <row r="9">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>657.2638935694504</v>
+        <v>880.5350882236853</v>
       </c>
       <c r="AB9" t="n">
-        <v>899.2974556182411</v>
+        <v>1204.786954174093</v>
       </c>
       <c r="AC9" t="n">
-        <v>813.4697686259416</v>
+        <v>1089.803778196827</v>
       </c>
       <c r="AD9" t="n">
-        <v>657263.8935694504</v>
+        <v>880535.0882236853</v>
       </c>
       <c r="AE9" t="n">
-        <v>899297.4556182411</v>
+        <v>1204786.954174093</v>
       </c>
       <c r="AF9" t="n">
         <v>3.750356688789986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>813469.7686259416</v>
+        <v>1089803.778196827</v>
       </c>
     </row>
   </sheetData>
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>560.8866598273137</v>
+        <v>781.4009351236169</v>
       </c>
       <c r="AB2" t="n">
-        <v>767.4298725487787</v>
+        <v>1069.14723241241</v>
       </c>
       <c r="AC2" t="n">
-        <v>694.1874426073134</v>
+        <v>967.1093211085342</v>
       </c>
       <c r="AD2" t="n">
-        <v>560886.6598273137</v>
+        <v>781400.9351236169</v>
       </c>
       <c r="AE2" t="n">
-        <v>767429.8725487787</v>
+        <v>1069147.23241241</v>
       </c>
       <c r="AF2" t="n">
         <v>6.456471448915267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.53645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>694187.4426073134</v>
+        <v>967109.3211085342</v>
       </c>
     </row>
   </sheetData>
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>884.5941329977601</v>
+        <v>1162.557517495473</v>
       </c>
       <c r="AB2" t="n">
-        <v>1210.340718306399</v>
+        <v>1590.662483855224</v>
       </c>
       <c r="AC2" t="n">
-        <v>1094.827498875103</v>
+        <v>1438.851888904898</v>
       </c>
       <c r="AD2" t="n">
-        <v>884594.1329977601</v>
+        <v>1162557.517495473</v>
       </c>
       <c r="AE2" t="n">
-        <v>1210340.718306399</v>
+        <v>1590662.483855224</v>
       </c>
       <c r="AF2" t="n">
         <v>3.260668224771801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1094827.498875103</v>
+        <v>1438851.888904898</v>
       </c>
     </row>
     <row r="3">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>715.4931404921257</v>
+        <v>955.1700696631709</v>
       </c>
       <c r="AB3" t="n">
-        <v>978.9692801509162</v>
+        <v>1306.905828442594</v>
       </c>
       <c r="AC3" t="n">
-        <v>885.5378260453261</v>
+        <v>1182.176570429883</v>
       </c>
       <c r="AD3" t="n">
-        <v>715493.1404921256</v>
+        <v>955170.069663171</v>
       </c>
       <c r="AE3" t="n">
-        <v>978969.2801509162</v>
+        <v>1306905.828442594</v>
       </c>
       <c r="AF3" t="n">
         <v>3.845942108713292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>885537.8260453262</v>
+        <v>1182176.570429883</v>
       </c>
     </row>
     <row r="4">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.5928975923883</v>
+        <v>886.64721756106</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.3793693201717</v>
+        <v>1213.149839181605</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.6393031956176</v>
+        <v>1097.368521196605</v>
       </c>
       <c r="AD4" t="n">
-        <v>656592.8975923883</v>
+        <v>886647.21756106</v>
       </c>
       <c r="AE4" t="n">
-        <v>898379.3693201717</v>
+        <v>1213149.839181605</v>
       </c>
       <c r="AF4" t="n">
         <v>4.074329430491489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>812639.3031956176</v>
+        <v>1097368.521196605</v>
       </c>
     </row>
     <row r="5">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>631.0680945339109</v>
+        <v>851.5681361377704</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.4552077007262</v>
+        <v>1165.15309239841</v>
       </c>
       <c r="AC5" t="n">
-        <v>781.0482545447635</v>
+        <v>1053.952516562541</v>
       </c>
       <c r="AD5" t="n">
-        <v>631068.0945339109</v>
+        <v>851568.1361377704</v>
       </c>
       <c r="AE5" t="n">
-        <v>863455.2077007262</v>
+        <v>1165153.09239841</v>
       </c>
       <c r="AF5" t="n">
         <v>4.173930683223017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.73958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>781048.2545447635</v>
+        <v>1053952.516562541</v>
       </c>
     </row>
     <row r="6">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>626.3972575004195</v>
+        <v>846.897299104279</v>
       </c>
       <c r="AB6" t="n">
-        <v>857.0643624087166</v>
+        <v>1158.7622471064</v>
       </c>
       <c r="AC6" t="n">
-        <v>775.2673425578156</v>
+        <v>1048.171604575593</v>
       </c>
       <c r="AD6" t="n">
-        <v>626397.2575004195</v>
+        <v>846897.299104279</v>
       </c>
       <c r="AE6" t="n">
-        <v>857064.3624087167</v>
+        <v>1158762.2471064</v>
       </c>
       <c r="AF6" t="n">
         <v>4.194725761187123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.50520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>775267.3425578156</v>
+        <v>1048171.604575593</v>
       </c>
     </row>
   </sheetData>
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>969.1606479407853</v>
+        <v>1268.208800731848</v>
       </c>
       <c r="AB2" t="n">
-        <v>1326.048354862779</v>
+        <v>1735.219230584891</v>
       </c>
       <c r="AC2" t="n">
-        <v>1199.492160995229</v>
+        <v>1569.612342613354</v>
       </c>
       <c r="AD2" t="n">
-        <v>969160.6479407854</v>
+        <v>1268208.800731848</v>
       </c>
       <c r="AE2" t="n">
-        <v>1326048.354862778</v>
+        <v>1735219.230584891</v>
       </c>
       <c r="AF2" t="n">
         <v>2.914865561030513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1199492.160995229</v>
+        <v>1569612.342613354</v>
       </c>
     </row>
     <row r="3">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.4696696353004</v>
+        <v>1010.679610663345</v>
       </c>
       <c r="AB3" t="n">
-        <v>1052.822348601012</v>
+        <v>1382.856431347145</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.3424612959773</v>
+        <v>1250.878554390564</v>
       </c>
       <c r="AD3" t="n">
-        <v>769469.6696353004</v>
+        <v>1010679.610663345</v>
       </c>
       <c r="AE3" t="n">
-        <v>1052822.348601012</v>
+        <v>1382856.431347145</v>
       </c>
       <c r="AF3" t="n">
         <v>3.520445548828958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>952342.4612959772</v>
+        <v>1250878.554390564</v>
       </c>
     </row>
     <row r="4">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.782542580836</v>
+        <v>938.9573071602424</v>
       </c>
       <c r="AB4" t="n">
-        <v>954.7368587522542</v>
+        <v>1284.722811529486</v>
       </c>
       <c r="AC4" t="n">
-        <v>863.6181129345354</v>
+        <v>1162.110669516901</v>
       </c>
       <c r="AD4" t="n">
-        <v>697782.542580836</v>
+        <v>938957.3071602425</v>
       </c>
       <c r="AE4" t="n">
-        <v>954736.8587522542</v>
+        <v>1284722.811529486</v>
       </c>
       <c r="AF4" t="n">
         <v>3.752470607303649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.97916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>863618.1129345354</v>
+        <v>1162110.669516901</v>
       </c>
     </row>
     <row r="5">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>668.9259605960547</v>
+        <v>900.4838001608117</v>
       </c>
       <c r="AB5" t="n">
-        <v>915.2540102181274</v>
+        <v>1232.081661921528</v>
       </c>
       <c r="AC5" t="n">
-        <v>827.9034520499797</v>
+        <v>1114.49351734521</v>
       </c>
       <c r="AD5" t="n">
-        <v>668925.9605960547</v>
+        <v>900483.8001608117</v>
       </c>
       <c r="AE5" t="n">
-        <v>915254.0102181274</v>
+        <v>1232081.661921528</v>
       </c>
       <c r="AF5" t="n">
         <v>3.870581379485195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>827903.4520499797</v>
+        <v>1114493.51734521</v>
       </c>
     </row>
     <row r="6">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>643.1871219904389</v>
+        <v>865.128036540547</v>
       </c>
       <c r="AB6" t="n">
-        <v>880.0369957205053</v>
+        <v>1183.706346350074</v>
       </c>
       <c r="AC6" t="n">
-        <v>796.0474999886205</v>
+        <v>1070.735073996714</v>
       </c>
       <c r="AD6" t="n">
-        <v>643187.1219904389</v>
+        <v>865128.036540547</v>
       </c>
       <c r="AE6" t="n">
-        <v>880036.9957205052</v>
+        <v>1183706.346350075</v>
       </c>
       <c r="AF6" t="n">
         <v>3.948080997908042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.63541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>796047.4999886205</v>
+        <v>1070735.073996714</v>
       </c>
     </row>
     <row r="7">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>641.5830923184794</v>
+        <v>863.5240068685875</v>
       </c>
       <c r="AB7" t="n">
-        <v>877.8422915585355</v>
+        <v>1181.511642188105</v>
       </c>
       <c r="AC7" t="n">
-        <v>794.0622553115825</v>
+        <v>1068.749829319676</v>
       </c>
       <c r="AD7" t="n">
-        <v>641583.0923184794</v>
+        <v>863524.0068685876</v>
       </c>
       <c r="AE7" t="n">
-        <v>877842.2915585355</v>
+        <v>1181511.642188105</v>
       </c>
       <c r="AF7" t="n">
         <v>3.957150822247485e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>794062.2553115825</v>
+        <v>1068749.829319676</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1158.143226580429</v>
+        <v>1489.978130564164</v>
       </c>
       <c r="AB2" t="n">
-        <v>1584.622656280489</v>
+        <v>2038.653811433793</v>
       </c>
       <c r="AC2" t="n">
-        <v>1433.388493996945</v>
+        <v>1844.087552939146</v>
       </c>
       <c r="AD2" t="n">
-        <v>1158143.226580428</v>
+        <v>1489978.130564164</v>
       </c>
       <c r="AE2" t="n">
-        <v>1584622.656280489</v>
+        <v>2038653.811433793</v>
       </c>
       <c r="AF2" t="n">
         <v>2.382914404632866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1433388.493996945</v>
+        <v>1844087.552939147</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.499209269552</v>
+        <v>1132.994268415889</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.68717772043</v>
+        <v>1550.212742226036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1076.145103215232</v>
+        <v>1402.262613845231</v>
       </c>
       <c r="AD3" t="n">
-        <v>869499.209269552</v>
+        <v>1132994.268415889</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189687.17772043</v>
+        <v>1550212.742226036</v>
       </c>
       <c r="AF3" t="n">
         <v>3.008977048382592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.25520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1076145.103215232</v>
+        <v>1402262.613845231</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>787.1535186184134</v>
+        <v>1031.122907811208</v>
       </c>
       <c r="AB4" t="n">
-        <v>1077.018170936063</v>
+        <v>1410.82785239947</v>
       </c>
       <c r="AC4" t="n">
-        <v>974.2290683064214</v>
+        <v>1276.180422275791</v>
       </c>
       <c r="AD4" t="n">
-        <v>787153.5186184134</v>
+        <v>1031122.907811208</v>
       </c>
       <c r="AE4" t="n">
-        <v>1077018.170936063</v>
+        <v>1410827.85239947</v>
       </c>
       <c r="AF4" t="n">
         <v>3.25460280502622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.24479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>974229.0683064214</v>
+        <v>1276180.42227579</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>745.497000359494</v>
+        <v>979.7035545755175</v>
       </c>
       <c r="AB5" t="n">
-        <v>1020.021884898327</v>
+        <v>1340.473624840633</v>
       </c>
       <c r="AC5" t="n">
-        <v>922.6724278133366</v>
+        <v>1212.540703452391</v>
       </c>
       <c r="AD5" t="n">
-        <v>745497.000359494</v>
+        <v>979703.5545755175</v>
       </c>
       <c r="AE5" t="n">
-        <v>1020021.884898327</v>
+        <v>1340473.624840633</v>
       </c>
       <c r="AF5" t="n">
         <v>3.379507686285379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>922672.4278133366</v>
+        <v>1212540.703452391</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.4530580101085</v>
+        <v>953.6254468073512</v>
       </c>
       <c r="AB6" t="n">
-        <v>984.3874139982518</v>
+        <v>1304.79240730731</v>
       </c>
       <c r="AC6" t="n">
-        <v>890.4388608026707</v>
+        <v>1180.264851241545</v>
       </c>
       <c r="AD6" t="n">
-        <v>719453.0580101085</v>
+        <v>953625.4468073512</v>
       </c>
       <c r="AE6" t="n">
-        <v>984387.4139982518</v>
+        <v>1304792.40730731</v>
       </c>
       <c r="AF6" t="n">
         <v>3.467310280155734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.22395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>890438.8608026707</v>
+        <v>1180264.851241545</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>696.2834836244201</v>
+        <v>920.7272028636722</v>
       </c>
       <c r="AB7" t="n">
-        <v>952.6857801542723</v>
+        <v>1259.779578575478</v>
       </c>
       <c r="AC7" t="n">
-        <v>861.7627863992381</v>
+        <v>1139.547983707977</v>
       </c>
       <c r="AD7" t="n">
-        <v>696283.4836244201</v>
+        <v>920727.2028636723</v>
       </c>
       <c r="AE7" t="n">
-        <v>952685.7801542722</v>
+        <v>1259779.578575478</v>
       </c>
       <c r="AF7" t="n">
         <v>3.526440127884824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.44270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>861762.786399238</v>
+        <v>1139547.983707977</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>685.5616272766384</v>
+        <v>910.0053465158907</v>
       </c>
       <c r="AB8" t="n">
-        <v>938.015663284319</v>
+        <v>1245.109461705526</v>
       </c>
       <c r="AC8" t="n">
-        <v>848.4927648937148</v>
+        <v>1126.277962202454</v>
       </c>
       <c r="AD8" t="n">
-        <v>685561.6272766384</v>
+        <v>910005.3465158907</v>
       </c>
       <c r="AE8" t="n">
-        <v>938015.663284319</v>
+        <v>1245109.461705525</v>
       </c>
       <c r="AF8" t="n">
         <v>3.554928285531616e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>848492.7648937148</v>
+        <v>1126277.962202454</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>670.9298209165061</v>
+        <v>895.4408599634627</v>
       </c>
       <c r="AB9" t="n">
-        <v>917.9957803126468</v>
+        <v>1225.181688664695</v>
       </c>
       <c r="AC9" t="n">
-        <v>830.383551454777</v>
+        <v>1108.252067851836</v>
       </c>
       <c r="AD9" t="n">
-        <v>670929.8209165061</v>
+        <v>895440.8599634627</v>
       </c>
       <c r="AE9" t="n">
-        <v>917995.7803126469</v>
+        <v>1225181.688664695</v>
       </c>
       <c r="AF9" t="n">
         <v>3.575909844403229e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.81770833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>830383.551454777</v>
+        <v>1108252.067851836</v>
       </c>
     </row>
   </sheetData>
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>803.1374784923801</v>
+        <v>1069.554603544884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.888129998166</v>
+        <v>1463.411793989039</v>
       </c>
       <c r="AC2" t="n">
-        <v>994.0117891703176</v>
+        <v>1323.745826282077</v>
       </c>
       <c r="AD2" t="n">
-        <v>803137.4784923801</v>
+        <v>1069554.603544884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098888.129998166</v>
+        <v>1463411.793989039</v>
       </c>
       <c r="AF2" t="n">
         <v>3.682099780986866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>994011.7891703176</v>
+        <v>1323745.826282077</v>
       </c>
     </row>
     <row r="3">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.0780075037654</v>
+        <v>898.4503300182258</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.8302916219795</v>
+        <v>1229.29937836207</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.3292953689732</v>
+        <v>1111.976771023707</v>
       </c>
       <c r="AD3" t="n">
-        <v>670078.0075037654</v>
+        <v>898450.3300182258</v>
       </c>
       <c r="AE3" t="n">
-        <v>916830.2916219796</v>
+        <v>1229299.37836207</v>
       </c>
       <c r="AF3" t="n">
         <v>4.249337826117333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.00520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>829329.2953689733</v>
+        <v>1111976.771023707</v>
       </c>
     </row>
     <row r="4">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>615.6653320186031</v>
+        <v>834.5852323515619</v>
       </c>
       <c r="AB4" t="n">
-        <v>842.3804685053581</v>
+        <v>1141.916334205283</v>
       </c>
       <c r="AC4" t="n">
-        <v>761.9848588796191</v>
+        <v>1032.933441958371</v>
       </c>
       <c r="AD4" t="n">
-        <v>615665.3320186031</v>
+        <v>834585.2323515619</v>
       </c>
       <c r="AE4" t="n">
-        <v>842380.4685053581</v>
+        <v>1141916.334205283</v>
       </c>
       <c r="AF4" t="n">
         <v>4.450766778992602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.86979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>761984.858879619</v>
+        <v>1032933.441958371</v>
       </c>
     </row>
     <row r="5">
@@ -11054,28 +11054,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>610.2824360606033</v>
+        <v>829.1008511670767</v>
       </c>
       <c r="AB5" t="n">
-        <v>835.0153527790134</v>
+        <v>1134.412361914849</v>
       </c>
       <c r="AC5" t="n">
-        <v>755.3226594611918</v>
+        <v>1026.145638251445</v>
       </c>
       <c r="AD5" t="n">
-        <v>610282.4360606034</v>
+        <v>829100.8511670767</v>
       </c>
       <c r="AE5" t="n">
-        <v>835015.3527790133</v>
+        <v>1134412.361914849</v>
       </c>
       <c r="AF5" t="n">
         <v>4.494412275636177e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>755322.6594611919</v>
+        <v>1026145.638251445</v>
       </c>
     </row>
   </sheetData>
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.3324322937033</v>
+        <v>925.2884467021693</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.54328918173</v>
+        <v>1266.020473623186</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.3974033370574</v>
+        <v>1145.193256491483</v>
       </c>
       <c r="AD2" t="n">
-        <v>690332.4322937033</v>
+        <v>925288.4467021693</v>
       </c>
       <c r="AE2" t="n">
-        <v>944543.28918173</v>
+        <v>1266020.473623186</v>
       </c>
       <c r="AF2" t="n">
         <v>4.536727148297272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>854397.4033370574</v>
+        <v>1145193.256491483</v>
       </c>
     </row>
     <row r="3">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.3470493076775</v>
+        <v>813.4670315600688</v>
       </c>
       <c r="AB3" t="n">
-        <v>817.3165859546726</v>
+        <v>1113.021480213097</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.3130381021908</v>
+        <v>1006.796272277017</v>
       </c>
       <c r="AD3" t="n">
-        <v>597347.0493076774</v>
+        <v>813467.0315600688</v>
       </c>
       <c r="AE3" t="n">
-        <v>817316.5859546727</v>
+        <v>1113021.480213097</v>
       </c>
       <c r="AF3" t="n">
         <v>5.044781279583086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.02604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>739313.0381021908</v>
+        <v>1006796.272277017</v>
       </c>
     </row>
     <row r="4">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.7547613433036</v>
+        <v>800.9420634033995</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.0872620292788</v>
+        <v>1095.884266218545</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.7280566707286</v>
+        <v>991.294609933874</v>
       </c>
       <c r="AD4" t="n">
-        <v>584754.7613433036</v>
+        <v>800942.0634033995</v>
       </c>
       <c r="AE4" t="n">
-        <v>800087.2620292788</v>
+        <v>1095884.266218545</v>
       </c>
       <c r="AF4" t="n">
         <v>5.085338390492596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.66145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>723728.0566707286</v>
+        <v>991294.609933874</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>611.8614755727475</v>
+        <v>835.1032083699176</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.1758643018359</v>
+        <v>1142.625051845086</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.2769747965732</v>
+        <v>1033.574520581323</v>
       </c>
       <c r="AD2" t="n">
-        <v>611861.4755727475</v>
+        <v>835103.2083699176</v>
       </c>
       <c r="AE2" t="n">
-        <v>837175.8643018359</v>
+        <v>1142625.051845086</v>
       </c>
       <c r="AF2" t="n">
         <v>5.379585116862692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>757276.9747965732</v>
+        <v>1033574.520581323</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.5411184734792</v>
+        <v>788.4768838529968</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.1125052606631</v>
+        <v>1078.828857632774</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.0870310744152</v>
+        <v>975.8669456061131</v>
       </c>
       <c r="AD3" t="n">
-        <v>574541.1184734792</v>
+        <v>788476.8838529969</v>
       </c>
       <c r="AE3" t="n">
-        <v>786112.5052606631</v>
+        <v>1078828.857632774</v>
       </c>
       <c r="AF3" t="n">
         <v>5.643857811192648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>711087.0310744152</v>
+        <v>975866.9456061131</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.3019931527886</v>
+        <v>785.0598441976189</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.8393705123386</v>
+        <v>1074.153513227136</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.8897884845269</v>
+        <v>971.6378095086618</v>
       </c>
       <c r="AD2" t="n">
-        <v>566301.9931527886</v>
+        <v>785059.8441976189</v>
       </c>
       <c r="AE2" t="n">
-        <v>774839.3705123386</v>
+        <v>1074153.513227136</v>
       </c>
       <c r="AF2" t="n">
         <v>7.017445014411312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.07291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>700889.7884845269</v>
+        <v>971637.8095086619</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>921.0765316928139</v>
+        <v>1219.207526395204</v>
       </c>
       <c r="AB2" t="n">
-        <v>1260.25754569081</v>
+        <v>1668.173525253842</v>
       </c>
       <c r="AC2" t="n">
-        <v>1139.980334312653</v>
+        <v>1508.965385299862</v>
       </c>
       <c r="AD2" t="n">
-        <v>921076.5316928138</v>
+        <v>1219207.526395204</v>
       </c>
       <c r="AE2" t="n">
-        <v>1260257.54569081</v>
+        <v>1668173.525253842</v>
       </c>
       <c r="AF2" t="n">
         <v>3.08168252423228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.80208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1139980.334312653</v>
+        <v>1508965.385299862</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.0820095103123</v>
+        <v>982.4914040892569</v>
       </c>
       <c r="AB3" t="n">
-        <v>1015.349343759713</v>
+        <v>1344.288083536572</v>
       </c>
       <c r="AC3" t="n">
-        <v>918.4458274430393</v>
+        <v>1215.991115564015</v>
       </c>
       <c r="AD3" t="n">
-        <v>742082.0095103123</v>
+        <v>982491.4040892569</v>
       </c>
       <c r="AE3" t="n">
-        <v>1015349.343759713</v>
+        <v>1344288.083536572</v>
       </c>
       <c r="AF3" t="n">
         <v>3.678323542304622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.27083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>918445.8274430393</v>
+        <v>1215991.115564015</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.3436550046358</v>
+        <v>913.0984489725823</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.6126916548477</v>
+        <v>1249.341580944821</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.5100066969507</v>
+        <v>1130.106173921368</v>
       </c>
       <c r="AD4" t="n">
-        <v>682343.6550046358</v>
+        <v>913098.4489725824</v>
       </c>
       <c r="AE4" t="n">
-        <v>933612.6916548477</v>
+        <v>1249341.580944821</v>
       </c>
       <c r="AF4" t="n">
         <v>3.904369270369357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>844510.0066969506</v>
+        <v>1130106.173921368</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.7001424566455</v>
+        <v>874.8686666511558</v>
       </c>
       <c r="AB5" t="n">
-        <v>894.4213741240987</v>
+        <v>1197.033906193682</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.0590535059766</v>
+        <v>1082.790670234195</v>
       </c>
       <c r="AD5" t="n">
-        <v>653700.1424566455</v>
+        <v>874868.6666511558</v>
       </c>
       <c r="AE5" t="n">
-        <v>894421.3741240988</v>
+        <v>1197033.906193682</v>
       </c>
       <c r="AF5" t="n">
         <v>4.02365571676805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.05208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>809059.0535059767</v>
+        <v>1082790.670234195</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.4252359893334</v>
+        <v>855.661079991548</v>
       </c>
       <c r="AB6" t="n">
-        <v>868.0485967466635</v>
+        <v>1170.753238747088</v>
       </c>
       <c r="AC6" t="n">
-        <v>785.2032569870186</v>
+        <v>1059.018192803556</v>
       </c>
       <c r="AD6" t="n">
-        <v>634425.2359893334</v>
+        <v>855661.0799915481</v>
       </c>
       <c r="AE6" t="n">
-        <v>868048.5967466636</v>
+        <v>1170753.238747088</v>
       </c>
       <c r="AF6" t="n">
         <v>4.064160216070289e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>785203.2569870185</v>
+        <v>1059018.192803556</v>
       </c>
     </row>
     <row r="7">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>633.5392170472348</v>
+        <v>854.6735758229643</v>
       </c>
       <c r="AB7" t="n">
-        <v>866.8363065416873</v>
+        <v>1169.402091978022</v>
       </c>
       <c r="AC7" t="n">
-        <v>784.1066660577453</v>
+        <v>1057.795997585783</v>
       </c>
       <c r="AD7" t="n">
-        <v>633539.2170472349</v>
+        <v>854673.5758229643</v>
       </c>
       <c r="AE7" t="n">
-        <v>866836.3065416873</v>
+        <v>1169402.091978022</v>
       </c>
       <c r="AF7" t="n">
         <v>4.075991427206683e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>784106.6660577453</v>
+        <v>1057795.997585783</v>
       </c>
     </row>
   </sheetData>
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1108.576640473166</v>
+        <v>1439.543488596242</v>
       </c>
       <c r="AB2" t="n">
-        <v>1516.803466445084</v>
+        <v>1969.646909273913</v>
       </c>
       <c r="AC2" t="n">
-        <v>1372.0418724546</v>
+        <v>1781.666572669609</v>
       </c>
       <c r="AD2" t="n">
-        <v>1108576.640473166</v>
+        <v>1439543.488596242</v>
       </c>
       <c r="AE2" t="n">
-        <v>1516803.466445084</v>
+        <v>1969646.909273913</v>
       </c>
       <c r="AF2" t="n">
         <v>2.496139311559755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1372041.8724546</v>
+        <v>1781666.572669609</v>
       </c>
     </row>
     <row r="3">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>841.2621244125091</v>
+        <v>1104.007351177161</v>
       </c>
       <c r="AB3" t="n">
-        <v>1151.05195248676</v>
+        <v>1510.551563247474</v>
       </c>
       <c r="AC3" t="n">
-        <v>1041.197169652984</v>
+        <v>1366.386642123569</v>
       </c>
       <c r="AD3" t="n">
-        <v>841262.1244125091</v>
+        <v>1104007.351177161</v>
       </c>
       <c r="AE3" t="n">
-        <v>1151051.95248676</v>
+        <v>1510551.563247474</v>
       </c>
       <c r="AF3" t="n">
         <v>3.125063536357808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1041197.169652984</v>
+        <v>1366386.642123569</v>
       </c>
     </row>
     <row r="4">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>763.4038049927531</v>
+        <v>1006.777859397971</v>
       </c>
       <c r="AB4" t="n">
-        <v>1044.522764990017</v>
+        <v>1377.517883132743</v>
       </c>
       <c r="AC4" t="n">
-        <v>944.8349782962773</v>
+        <v>1246.049509725045</v>
       </c>
       <c r="AD4" t="n">
-        <v>763403.8049927531</v>
+        <v>1006777.859397971</v>
       </c>
       <c r="AE4" t="n">
-        <v>1044522.764990017</v>
+        <v>1377517.883132743</v>
       </c>
       <c r="AF4" t="n">
         <v>3.359628815679549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>944834.9782962773</v>
+        <v>1246049.509725045</v>
       </c>
     </row>
     <row r="5">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>720.8358858745773</v>
+        <v>954.4736114868347</v>
       </c>
       <c r="AB5" t="n">
-        <v>986.2794600884777</v>
+        <v>1305.952903640165</v>
       </c>
       <c r="AC5" t="n">
-        <v>892.1503326695489</v>
+        <v>1181.314591433159</v>
       </c>
       <c r="AD5" t="n">
-        <v>720835.8858745773</v>
+        <v>954473.6114868347</v>
       </c>
       <c r="AE5" t="n">
-        <v>986279.4600884777</v>
+        <v>1305952.903640165</v>
       </c>
       <c r="AF5" t="n">
         <v>3.49709790431154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.82291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>892150.3326695489</v>
+        <v>1181314.591433159</v>
       </c>
     </row>
     <row r="6">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>696.3251199131035</v>
+        <v>929.92868010658</v>
       </c>
       <c r="AB6" t="n">
-        <v>952.7427487613121</v>
+        <v>1272.369445679751</v>
       </c>
       <c r="AC6" t="n">
-        <v>861.8143180023779</v>
+        <v>1150.936291565808</v>
       </c>
       <c r="AD6" t="n">
-        <v>696325.1199131035</v>
+        <v>929928.68010658</v>
       </c>
       <c r="AE6" t="n">
-        <v>952742.7487613121</v>
+        <v>1272369.445679751</v>
       </c>
       <c r="AF6" t="n">
         <v>3.57224683428191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>861814.318002378</v>
+        <v>1150936.291565808</v>
       </c>
     </row>
     <row r="7">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>682.3758864864072</v>
+        <v>906.2099634980003</v>
       </c>
       <c r="AB7" t="n">
-        <v>933.6567921901601</v>
+        <v>1239.916451219966</v>
       </c>
       <c r="AC7" t="n">
-        <v>844.5498983390685</v>
+        <v>1121.580565349201</v>
       </c>
       <c r="AD7" t="n">
-        <v>682375.8864864073</v>
+        <v>906209.9634980003</v>
       </c>
       <c r="AE7" t="n">
-        <v>933656.7921901601</v>
+        <v>1239916.451219966</v>
       </c>
       <c r="AF7" t="n">
         <v>3.631045369447012e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>844549.8983390685</v>
+        <v>1121580.565349201</v>
       </c>
     </row>
     <row r="8">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>664.6770685648164</v>
+        <v>888.5784653841139</v>
       </c>
       <c r="AB8" t="n">
-        <v>909.4404886931001</v>
+        <v>1215.792257653748</v>
       </c>
       <c r="AC8" t="n">
-        <v>822.6447648599724</v>
+        <v>1099.758750958424</v>
       </c>
       <c r="AD8" t="n">
-        <v>664677.0685648164</v>
+        <v>888578.4653841138</v>
       </c>
       <c r="AE8" t="n">
-        <v>909440.4886931001</v>
+        <v>1215792.257653748</v>
       </c>
       <c r="AF8" t="n">
         <v>3.650665843213334e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.86979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>822644.7648599724</v>
+        <v>1099758.750958424</v>
       </c>
     </row>
     <row r="9">
@@ -22902,28 +22902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>663.624616730491</v>
+        <v>887.5260135497884</v>
       </c>
       <c r="AB9" t="n">
-        <v>908.0004776624779</v>
+        <v>1214.352246623126</v>
       </c>
       <c r="AC9" t="n">
-        <v>821.3421864610447</v>
+        <v>1098.456172559497</v>
       </c>
       <c r="AD9" t="n">
-        <v>663624.6167304909</v>
+        <v>887526.0135497884</v>
       </c>
       <c r="AE9" t="n">
-        <v>908000.4776624779</v>
+        <v>1214352.246623126</v>
       </c>
       <c r="AF9" t="n">
         <v>3.663243069986618e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.71354166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>821342.1864610447</v>
+        <v>1098456.172559496</v>
       </c>
     </row>
   </sheetData>
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.5512754663596</v>
+        <v>821.2840172877011</v>
       </c>
       <c r="AB2" t="n">
-        <v>790.2311348570762</v>
+        <v>1123.717024946715</v>
       </c>
       <c r="AC2" t="n">
-        <v>714.8125844426795</v>
+        <v>1016.47104923255</v>
       </c>
       <c r="AD2" t="n">
-        <v>577551.2754663596</v>
+        <v>821284.0172877011</v>
       </c>
       <c r="AE2" t="n">
-        <v>790231.1348570762</v>
+        <v>1123717.024946715</v>
       </c>
       <c r="AF2" t="n">
         <v>7.703199918778566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.58854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>714812.5844426795</v>
+        <v>1016471.04923255</v>
       </c>
     </row>
   </sheetData>
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.0720901505067</v>
+        <v>979.8661863203521</v>
       </c>
       <c r="AB2" t="n">
-        <v>992.0756216669471</v>
+        <v>1340.696144768722</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.3933167219329</v>
+        <v>1212.741986390852</v>
       </c>
       <c r="AD2" t="n">
-        <v>725072.0901505067</v>
+        <v>979866.1863203521</v>
       </c>
       <c r="AE2" t="n">
-        <v>992075.621666947</v>
+        <v>1340696.144768722</v>
       </c>
       <c r="AF2" t="n">
         <v>4.207872911672762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>897393.316721933</v>
+        <v>1212741.986390852</v>
       </c>
     </row>
     <row r="3">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>614.5586719071916</v>
+        <v>841.1249297219788</v>
       </c>
       <c r="AB3" t="n">
-        <v>840.8662873185268</v>
+        <v>1150.864236658573</v>
       </c>
       <c r="AC3" t="n">
-        <v>760.6151890200921</v>
+        <v>1041.027369159979</v>
       </c>
       <c r="AD3" t="n">
-        <v>614558.6719071916</v>
+        <v>841124.9297219788</v>
       </c>
       <c r="AE3" t="n">
-        <v>840866.2873185268</v>
+        <v>1150864.236658573</v>
       </c>
       <c r="AF3" t="n">
         <v>4.750990600501493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.59895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>760615.1890200921</v>
+        <v>1041027.369159979</v>
       </c>
     </row>
     <row r="4">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.8928744378329</v>
+        <v>810.0501898108863</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.2221873934247</v>
+        <v>1108.346406591446</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.8002803860863</v>
+        <v>1002.56738112031</v>
       </c>
       <c r="AD4" t="n">
-        <v>592892.874437833</v>
+        <v>810050.1898108863</v>
       </c>
       <c r="AE4" t="n">
-        <v>811222.1873934248</v>
+        <v>1108346.406591446</v>
       </c>
       <c r="AF4" t="n">
         <v>4.853293013558053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.63541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>733800.2803860863</v>
+        <v>1002567.38112031</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.8809548155031</v>
+        <v>1114.906114502485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1146.425687077461</v>
+        <v>1525.463732048685</v>
       </c>
       <c r="AC2" t="n">
-        <v>1037.012428521345</v>
+        <v>1379.875614463753</v>
       </c>
       <c r="AD2" t="n">
-        <v>837880.9548155031</v>
+        <v>1114906.114502485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1146425.687077461</v>
+        <v>1525463.732048685</v>
       </c>
       <c r="AF2" t="n">
         <v>3.463718272954143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.67708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1037012.428521345</v>
+        <v>1379875.614463753</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.1015805833342</v>
+        <v>925.9069484738275</v>
       </c>
       <c r="AB3" t="n">
-        <v>940.1226953364851</v>
+        <v>1266.866735033541</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.3987047640602</v>
+        <v>1145.958751900569</v>
       </c>
       <c r="AD3" t="n">
-        <v>687101.5805833342</v>
+        <v>925906.9484738274</v>
       </c>
       <c r="AE3" t="n">
-        <v>940122.695336485</v>
+        <v>1266866.735033541</v>
       </c>
       <c r="AF3" t="n">
         <v>4.043535039593541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>850398.7047640602</v>
+        <v>1145958.75190057</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>640.894417146318</v>
+        <v>860.5567347496432</v>
       </c>
       <c r="AB4" t="n">
-        <v>876.9000158057802</v>
+        <v>1177.451689568158</v>
       </c>
       <c r="AC4" t="n">
-        <v>793.2099090341777</v>
+        <v>1065.077352879598</v>
       </c>
       <c r="AD4" t="n">
-        <v>640894.417146318</v>
+        <v>860556.7347496431</v>
       </c>
       <c r="AE4" t="n">
-        <v>876900.0158057802</v>
+        <v>1177451.689568158</v>
       </c>
       <c r="AF4" t="n">
         <v>4.256606036862865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>793209.9090341777</v>
+        <v>1065077.352879598</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>619.078361588794</v>
+        <v>838.8079989998238</v>
       </c>
       <c r="AB5" t="n">
-        <v>847.0503261355316</v>
+        <v>1147.694109828751</v>
       </c>
       <c r="AC5" t="n">
-        <v>766.209031851755</v>
+        <v>1038.159794785494</v>
       </c>
       <c r="AD5" t="n">
-        <v>619078.361588794</v>
+        <v>838807.9989998238</v>
       </c>
       <c r="AE5" t="n">
-        <v>847050.3261355315</v>
+        <v>1147694.109828751</v>
       </c>
       <c r="AF5" t="n">
         <v>4.329407145766496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.55729166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>766209.031851755</v>
+        <v>1038159.794785494</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>618.5545211054246</v>
+        <v>838.1826732899689</v>
       </c>
       <c r="AB6" t="n">
-        <v>846.3335844759741</v>
+        <v>1146.838511605104</v>
       </c>
       <c r="AC6" t="n">
-        <v>765.5606950102324</v>
+        <v>1037.385853655473</v>
       </c>
       <c r="AD6" t="n">
-        <v>618554.5211054245</v>
+        <v>838182.6732899689</v>
       </c>
       <c r="AE6" t="n">
-        <v>846333.5844759741</v>
+        <v>1146838.511605104</v>
       </c>
       <c r="AF6" t="n">
         <v>4.342367668714752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.42708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>765560.6950102324</v>
+        <v>1037385.853655473</v>
       </c>
     </row>
   </sheetData>
